--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3783.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3783.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,58 +438,121 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_NUMBER</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INNING_NUMBER</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_DATE</t>
+          <t>BATTING_HAND</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_INNING</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>OPPONENT</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VENUE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DISMISSAL</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RUNS_SCORED</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>BALLS_FACED</t>
+          <t>BOWL_STYLE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>3783</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>David Andrew Miller</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J156"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>INNING_NUMBER</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_DATE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_INNING</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OPPONENT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VENUE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DISMISSAL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RUNS_SCORED</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BALLS_FACED</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3109</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3110</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3112</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -647,7 +712,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>30/05/2010</t>
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3114</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -707,7 +771,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3189</t>
+          <t>3189</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -747,7 +811,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>17/10/2010</t>
@@ -755,7 +818,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3192</t>
+          <t>3192</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -807,7 +870,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3194</t>
+          <t>3194</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -847,7 +910,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>29/10/2010</t>
@@ -855,7 +917,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3196</t>
+          <t>3196</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -907,7 +969,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3197</t>
+          <t>3197</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -959,7 +1021,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3198</t>
+          <t>3198</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1011,7 +1073,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3201</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1063,7 +1125,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3214</t>
+          <t>3214</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1115,7 +1177,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3215</t>
+          <t>3215</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1167,7 +1229,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3339</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1219,7 +1281,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3344</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1271,7 +1333,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3347</t>
+          <t>3347</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1323,7 +1385,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3466</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1375,7 +1437,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3469</t>
+          <t>3469</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1427,7 +1489,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3489</t>
+          <t>3489</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1479,7 +1541,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3491</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1531,7 +1593,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1583,7 +1645,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3509</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1635,7 +1697,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3513</t>
+          <t>3513</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1687,7 +1749,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3517</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1739,7 +1801,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3534</t>
+          <t>3534</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1791,7 +1853,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3536</t>
+          <t>3536</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1843,7 +1905,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3540</t>
+          <t>3540</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1895,7 +1957,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3542</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1947,7 +2009,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3543</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1999,7 +2061,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3569</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2051,7 +2113,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3571</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2103,7 +2165,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3574</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2155,7 +2217,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3575</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2207,7 +2269,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3577</t>
+          <t>3577</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2259,7 +2321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3582</t>
+          <t>3582</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2311,7 +2373,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3584</t>
+          <t>3584</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2363,7 +2425,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3585</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2415,7 +2477,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2467,7 +2529,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2519,7 +2581,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2571,7 +2633,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3646</t>
+          <t>3646</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2623,7 +2685,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3647</t>
+          <t>3647</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2675,7 +2737,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3648</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2715,7 +2777,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>17/08/2014</t>
@@ -2723,7 +2784,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3653</t>
+          <t>3653</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2775,7 +2836,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3654</t>
+          <t>3654</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2827,7 +2888,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3656</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2867,7 +2928,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>27/08/2014</t>
@@ -2875,7 +2935,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2927,7 +2987,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3665</t>
+          <t>3665</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2979,7 +3039,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3031,7 +3091,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3671</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3071,7 +3131,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>06/09/2014</t>
@@ -3079,7 +3138,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3131,7 +3190,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3183,7 +3242,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3687</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3235,7 +3294,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3287,7 +3346,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3339,7 +3398,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3391,7 +3450,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3443,7 +3502,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3495,7 +3554,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3728</t>
+          <t>3728</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3547,7 +3606,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3732</t>
+          <t>3732</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3587,7 +3646,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>21/01/2015</t>
@@ -3595,7 +3653,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3736</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3647,7 +3705,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3699,7 +3757,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3751,7 +3809,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3750</t>
+          <t>3750</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3803,7 +3861,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3855,7 +3913,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3766</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3907,7 +3965,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3959,7 +4017,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3776</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4011,7 +4069,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3783</t>
+          <t>3783</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4051,7 +4109,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>18/03/2015</t>
@@ -4059,7 +4116,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3790</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4111,7 +4168,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3794</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4151,7 +4208,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>10/07/2015</t>
@@ -4159,7 +4215,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4211,7 +4267,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4263,7 +4319,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4315,7 +4371,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3826</t>
+          <t>3826</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4367,7 +4423,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3827</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4419,7 +4475,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3828</t>
+          <t>3828</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4471,7 +4527,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4523,7 +4579,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4575,7 +4631,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3845</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4627,7 +4683,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3848</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4679,7 +4735,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4731,7 +4787,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4783,7 +4839,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4835,7 +4891,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4887,7 +4943,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4939,7 +4995,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4979,7 +5035,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>28/01/2017</t>
@@ -4987,7 +5042,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5039,7 +5094,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5091,7 +5146,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5143,7 +5198,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5195,7 +5250,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5247,7 +5302,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5299,7 +5354,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5351,7 +5406,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5391,7 +5446,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>29/05/2017</t>
@@ -5399,7 +5453,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5451,7 +5505,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5503,7 +5557,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5555,7 +5609,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5595,7 +5649,6 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -5603,7 +5656,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5655,7 +5708,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5707,7 +5760,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5759,7 +5812,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5811,7 +5864,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5863,7 +5916,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5915,7 +5968,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5967,7 +6020,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6019,7 +6072,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6071,7 +6124,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6123,7 +6176,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6175,7 +6228,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6227,7 +6280,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6279,7 +6332,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6331,7 +6384,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6371,7 +6424,6 @@
           <t>115</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -6379,7 +6431,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6431,7 +6483,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6471,7 +6523,6 @@
           <t>117</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>03/03/2019</t>
@@ -6479,7 +6530,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6531,7 +6582,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4264</t>
+          <t>4264</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6583,7 +6634,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6635,7 +6686,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4271</t>
+          <t>4271</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6687,7 +6738,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6739,7 +6790,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6779,7 +6830,6 @@
           <t>123</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -6787,7 +6837,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6827,7 +6877,6 @@
           <t>124</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>15/06/2019</t>
@@ -6835,7 +6884,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6887,7 +6936,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6939,7 +6988,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6979,7 +7028,6 @@
           <t>127</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>04/02/2020</t>
@@ -6987,7 +7035,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7027,7 +7075,6 @@
           <t>128</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -7035,7 +7082,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7087,7 +7134,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7139,7 +7186,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7191,7 +7238,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7243,7 +7290,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7295,7 +7342,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7347,7 +7394,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7387,7 +7434,6 @@
           <t>135</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -7395,7 +7441,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7447,7 +7493,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7499,7 +7545,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4517</t>
+          <t>4517</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7551,7 +7597,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7591,7 +7637,6 @@
           <t>139</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -7599,7 +7644,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7651,7 +7696,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7703,7 +7748,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7743,7 +7788,6 @@
           <t>142</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
           <t>20/03/2022</t>
@@ -7751,7 +7795,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7803,7 +7847,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7855,7 +7899,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7907,7 +7951,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7947,7 +7991,6 @@
           <t>146</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -7955,7 +7998,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8007,7 +8050,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8059,7 +8102,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8111,7 +8154,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4658</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8163,7 +8206,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8215,7 +8258,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8267,7 +8310,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8319,7 +8362,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4731</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8350,6 +8393,636 @@
       <c r="J154" t="inlineStr">
         <is>
           <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>4746</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Willowmoore Park</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>did not bat</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>02/04/2023</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>4751</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Wanderers Stadium</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>c &amp; b P A van Meekeren</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9.72%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4517</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13.59%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.62%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.39%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14.46%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12.59%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.07%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17.79%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>16.71%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.53%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.44%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4746</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4751</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3783.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3783.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F136" t="inlineStr">

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3783.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3783.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -712,6 +711,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>30/05/2010</t>
@@ -811,6 +811,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>17/10/2010</t>
@@ -910,6 +911,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>29/10/2010</t>
@@ -2777,6 +2779,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>17/08/2014</t>
@@ -2928,6 +2931,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>27/08/2014</t>
@@ -3131,6 +3135,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>06/09/2014</t>
@@ -3646,6 +3651,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>21/01/2015</t>
@@ -4109,6 +4115,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>18/03/2015</t>
@@ -4208,6 +4215,7 @@
           <t>72</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>10/07/2015</t>
@@ -5035,6 +5043,7 @@
           <t>88</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>28/01/2017</t>
@@ -5446,6 +5455,7 @@
           <t>96</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>29/05/2017</t>
@@ -5649,6 +5659,7 @@
           <t>100</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -6424,6 +6435,7 @@
           <t>115</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -6523,6 +6535,7 @@
           <t>117</t>
         </is>
       </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>03/03/2019</t>
@@ -6830,6 +6843,7 @@
           <t>123</t>
         </is>
       </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -6877,6 +6891,7 @@
           <t>124</t>
         </is>
       </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>15/06/2019</t>
@@ -7028,6 +7043,7 @@
           <t>127</t>
         </is>
       </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>04/02/2020</t>
@@ -7075,6 +7091,7 @@
           <t>128</t>
         </is>
       </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -7434,6 +7451,7 @@
           <t>135</t>
         </is>
       </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -7637,6 +7655,7 @@
           <t>139</t>
         </is>
       </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -7788,6 +7807,7 @@
           <t>142</t>
         </is>
       </c>
+      <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
           <t>20/03/2022</t>
@@ -7991,6 +8011,7 @@
           <t>146</t>
         </is>
       </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -8402,6 +8423,7 @@
           <t>154</t>
         </is>
       </c>
+      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
           <t>31/03/2023</t>
@@ -8492,537 +8514,6 @@
       <c r="J156" t="inlineStr">
         <is>
           <t>61</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9.72%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4517</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>13.59%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>28.62%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10.39%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14.46%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>12.59%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.07%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>17.79%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>16.71%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.53%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.44%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4746</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4751</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
